--- a/excel/story.xlsx
+++ b/excel/story.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBACBC8E-B757-451E-B14A-99A8FBE7B58A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C22A61B-3E04-47F2-89BD-9D9907B0CE9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -134,19 +134,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游到一处山水相接之地,道路四通八达,接着往里去…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出发!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土匪打劫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打劫逃跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱财毕竟还是身外之物,保命要紧…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90005,90006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">游到一处荒山,荒烟蔓草,鸡犬不闻。
+从树后突然跳出两个大汉,
+"&lt;color=#b53030&gt;要命的把钱留下!!&lt;/c&gt;"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打赢打劫的了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈哈,区区两条杂鱼也敢在我面前猖狂!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +529,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -552,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -603,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -636,7 +659,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80004</v>
       </c>
@@ -647,12 +670,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -661,11 +686,21 @@
       <c r="A7" s="1">
         <v>80005</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>90007</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -674,11 +709,21 @@
       <c r="A8" s="1">
         <v>80006</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>90007</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>

--- a/excel/story.xlsx
+++ b/excel/story.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C22A61B-3E04-47F2-89BD-9D9907B0CE9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43E52A-F097-4CF7-A097-A2FB79422C72}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$30</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,12 +58,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{F8DA5DFB-F4DE-4658-ACD2-3335B7F205B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.正常渲染
+2.随机选项 --几个选项</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -171,6 +201,120 @@
   <si>
     <t>哈哈哈,区区两条杂鱼也敢在我面前猖狂!</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山谷奇遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">游到一处山谷,树木苍翠,飞流急湍…
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">从悬崖一跃而下,不过还好只是&lt;color=#b53030&gt;受了些伤&lt;/c&gt;,不过因祸得福,在悬崖下发现一个山洞,里面埋了本&lt;color=#1ac7c8&gt;武功秘籍&lt;/c&gt;,也不知道是谁埋得…
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武馆结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出身于当地武馆,自小习武,所以身体素质强于他人,而且有一定轻功基础。
+在你15岁那年,有个外地来的老头,自称是洞庭老人,十八般武艺样样精通,看你骨骼精奇，要教你一招,你想学…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90010,90011,90012,90013,90014,90015,90016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富贵结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名门结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡野结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出身富贵,从小衣食优渥,平常也多带些银两在身上。
+在你15岁那年,有个外地来的老头,自称是洞庭老人,十八般武艺样样精通,看你骨骼精奇，要教你一招,你想学…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你本是武林名门之后,可惜家道中落,宗门只剩祖上遗留下来的秘籍。
+在你15岁那年,有个外地来的老头,自称是洞庭老人,十八般武艺样样精通,看你骨骼精奇，要教你一招,你想学…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出身于偏僻的村落,从小和邻居家的小何在田野间玩耍,两人十分要好。
+在你15岁那年,有个外地来的老头,自称是洞庭老人,十八般武艺样样精通,看你骨骼精奇，要教你一招,你想学…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90008,90009,90017,90018,90019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过修炼你感觉自己的基本功更加扎实,是时候该接着闯荡江湖了…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>woods</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>scret</t>
+  </si>
+  <si>
+    <t>bigDoor2</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>bigDoor</t>
   </si>
 </sst>
 </file>
@@ -526,23 +670,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="54.109375" customWidth="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="7" width="54.109375" customWidth="1"/>
+    <col min="8" max="8" width="39.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -553,21 +697,27 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,21 +728,27 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>80001</v>
       </c>
@@ -603,19 +759,25 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80002</v>
       </c>
@@ -626,19 +788,25 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80003</v>
       </c>
@@ -648,18 +816,22 @@
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80004</v>
       </c>
@@ -670,19 +842,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>80005</v>
       </c>
@@ -693,19 +871,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>90007</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>80006</v>
       </c>
@@ -716,110 +900,228 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>90007</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>80007</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>80008</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>90007</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>80009</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>80010</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>80011</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>80012</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>80013</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>90007</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>80014</v>
       </c>
@@ -827,10 +1129,12 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>80015</v>
       </c>
@@ -838,10 +1142,12 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>80016</v>
       </c>
@@ -849,10 +1155,12 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>80017</v>
       </c>
@@ -860,65 +1168,68 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>80018</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>80019</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>80020</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>80021</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>80022</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>80023</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>80024</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>80025</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>80026</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>80027</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>80028</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I30" xr:uid="{7169D43D-4873-4D45-AB68-8EDC7C0A445C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
